--- a/ServiceAreaClient/Docs/Device_SN_Description.xlsx
+++ b/ServiceAreaClient/Docs/Device_SN_Description.xlsx
@@ -564,14 +564,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>锅炉房进水</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>锅炉房回水</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>西区总水表</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -597,6 +589,14 @@
   </si>
   <si>
     <t>井泉服务区</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>东区锅炉房进水</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>东区锅炉房回水</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2627,8 +2627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2878,7 +2878,7 @@
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -3018,7 +3018,7 @@
         <v>169014</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
@@ -3029,7 +3029,7 @@
         <v>169015</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
@@ -3040,7 +3040,7 @@
         <v>169016</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -3051,7 +3051,7 @@
         <v>169017</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
@@ -3062,7 +3062,7 @@
         <v>169018</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
@@ -3073,7 +3073,7 @@
         <v>169019</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
@@ -3084,7 +3084,7 @@
         <v>169020</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
@@ -3095,7 +3095,7 @@
         <v>169021</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>

--- a/ServiceAreaClient/Docs/Device_SN_Description.xlsx
+++ b/ServiceAreaClient/Docs/Device_SN_Description.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="13650" activeTab="2"/>
+    <workbookView windowWidth="13755" windowHeight="13230" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152">
   <si>
     <t xml:space="preserve">设备编号用 3x4=12位数字来统一表示:
 </t>
@@ -399,6 +399,42 @@
     <t>东区开水机</t>
   </si>
   <si>
+    <t>东区锅炉房</t>
+  </si>
+  <si>
+    <t>东区广场</t>
+  </si>
+  <si>
+    <t>东区餐厅1</t>
+  </si>
+  <si>
+    <t>东区餐厅2</t>
+  </si>
+  <si>
+    <t>东区餐厅3</t>
+  </si>
+  <si>
+    <t>西区客流</t>
+  </si>
+  <si>
+    <t>东区客流</t>
+  </si>
+  <si>
+    <t>东区室外洗手池</t>
+  </si>
+  <si>
+    <t>东区室外公厕</t>
+  </si>
+  <si>
+    <t>东区公厕洗手间</t>
+  </si>
+  <si>
+    <t>锅炉房进水</t>
+  </si>
+  <si>
+    <t>锅炉房回水</t>
+  </si>
+  <si>
     <t>设备种别编号</t>
   </si>
   <si>
@@ -435,7 +471,80 @@
     <t>水温传感器</t>
   </si>
   <si>
-    <t>未定</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>对于串口设备来说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>就是设备的地址</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>其它串口以外</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>现在只有摄像头</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>是序号</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -443,16 +552,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
       <charset val="128"/>
     </font>
     <font>
@@ -551,57 +666,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -610,10 +728,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -929,11 +1047,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -965,69 +1083,69 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="16384" width="9" style="14"/>
+    <col min="1" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:2">
-      <c r="A4" s="14">
+      <c r="A4" s="15">
         <v>1</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="14">
+      <c r="A13" s="15">
         <v>2</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="14">
+      <c r="A15" s="15">
         <v>3</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="14">
+      <c r="A18" s="15">
         <v>4</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1043,1453 +1161,1453 @@
   <sheetPr/>
   <dimension ref="B3:F144"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="9" style="8"/>
-    <col min="3" max="3" width="36" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9" style="9"/>
+    <col min="3" max="3" width="36" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="20.25" spans="2:6">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="2:6">
-      <c r="B4" s="11">
+      <c r="B4" s="12">
         <v>100</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="6" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="2:6">
-      <c r="B5" s="11">
+      <c r="B5" s="12">
         <v>101</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="6"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" ht="16.5" spans="2:6">
-      <c r="B6" s="11">
+      <c r="B6" s="12">
         <v>102</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="6"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" ht="16.5" spans="2:6">
-      <c r="B7" s="11">
+      <c r="B7" s="12">
         <v>103</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="6"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" ht="16.5" spans="2:6">
-      <c r="B8" s="11">
+      <c r="B8" s="12">
         <v>104</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="6"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" ht="16.5" spans="2:6">
-      <c r="B9" s="11">
+      <c r="B9" s="12">
         <v>105</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="6"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" ht="16.5" spans="2:6">
-      <c r="B10" s="11">
+      <c r="B10" s="12">
         <v>106</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="6"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" ht="16.5" spans="2:6">
-      <c r="B11" s="11">
+      <c r="B11" s="12">
         <v>107</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="6"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" ht="16.5" spans="2:6">
-      <c r="B12" s="11">
+      <c r="B12" s="12">
         <v>108</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="6"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" ht="16.5" spans="2:6">
-      <c r="B13" s="11">
+      <c r="B13" s="12">
         <v>109</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="6"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" ht="16.5" spans="2:6">
-      <c r="B14" s="11">
+      <c r="B14" s="12">
         <v>110</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="6"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" ht="16.5" spans="2:6">
-      <c r="B15" s="11">
+      <c r="B15" s="12">
         <v>111</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="6"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" ht="16.5" spans="2:6">
-      <c r="B16" s="11">
+      <c r="B16" s="12">
         <v>112</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="6"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" ht="16.5" spans="2:6">
-      <c r="B17" s="11">
+      <c r="B17" s="12">
         <v>113</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="6"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" ht="16.5" spans="2:6">
-      <c r="B18" s="11">
+      <c r="B18" s="12">
         <v>114</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="6" t="s">
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="2:6">
-      <c r="B19" s="11">
+      <c r="B19" s="12">
         <v>115</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="6"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" ht="16.5" spans="2:6">
-      <c r="B20" s="11">
+      <c r="B20" s="12">
         <v>116</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="6"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" ht="16.5" spans="2:6">
-      <c r="B21" s="11">
+      <c r="B21" s="12">
         <v>117</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="6"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" ht="16.5" spans="2:6">
-      <c r="B22" s="11">
+      <c r="B22" s="12">
         <v>118</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="6"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" ht="16.5" spans="2:6">
-      <c r="B23" s="11">
+      <c r="B23" s="12">
         <v>119</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="6"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" ht="16.5" spans="2:6">
-      <c r="B24" s="11">
+      <c r="B24" s="12">
         <v>120</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="6"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" ht="16.5" spans="2:6">
-      <c r="B25" s="11">
+      <c r="B25" s="12">
         <v>121</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="6"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" ht="16.5" spans="2:6">
-      <c r="B26" s="11">
+      <c r="B26" s="12">
         <v>122</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="6"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" ht="16.5" spans="2:6">
-      <c r="B27" s="11">
+      <c r="B27" s="12">
         <v>123</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="6" t="s">
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="2:6">
-      <c r="B28" s="11">
+      <c r="B28" s="12">
         <v>124</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="6"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" ht="16.5" spans="2:6">
-      <c r="B29" s="11">
+      <c r="B29" s="12">
         <v>125</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="6"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" ht="16.5" spans="2:6">
-      <c r="B30" s="11">
+      <c r="B30" s="12">
         <v>126</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="6"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" ht="16.5" spans="2:6">
-      <c r="B31" s="11">
+      <c r="B31" s="12">
         <v>127</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="6"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" ht="16.5" spans="2:6">
-      <c r="B32" s="11">
+      <c r="B32" s="12">
         <v>128</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="6"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" ht="16.5" spans="2:6">
-      <c r="B33" s="11">
+      <c r="B33" s="12">
         <v>129</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="6" t="s">
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="2:6">
-      <c r="B34" s="11">
+      <c r="B34" s="12">
         <v>130</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="6"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" ht="16.5" spans="2:6">
-      <c r="B35" s="11">
+      <c r="B35" s="12">
         <v>131</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="6"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" ht="16.5" spans="2:6">
-      <c r="B36" s="11">
+      <c r="B36" s="12">
         <v>132</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="6"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" ht="16.5" spans="2:6">
-      <c r="B37" s="11">
+      <c r="B37" s="12">
         <v>133</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="6"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" ht="16.5" spans="2:6">
-      <c r="B38" s="11">
+      <c r="B38" s="12">
         <v>134</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="6"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" ht="16.5" spans="2:6">
-      <c r="B39" s="11">
+      <c r="B39" s="12">
         <v>135</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="6"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" ht="16.5" spans="2:6">
-      <c r="B40" s="11">
+      <c r="B40" s="12">
         <v>136</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="6" t="s">
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="41" ht="16.5" spans="2:6">
-      <c r="B41" s="11">
+      <c r="B41" s="12">
         <v>137</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="6"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" ht="16.5" spans="2:6">
-      <c r="B42" s="11">
+      <c r="B42" s="12">
         <v>138</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="6"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" ht="16.5" spans="2:6">
-      <c r="B43" s="11">
+      <c r="B43" s="12">
         <v>139</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="6"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="7"/>
     </row>
     <row r="44" ht="16.5" spans="2:6">
-      <c r="B44" s="11">
+      <c r="B44" s="12">
         <v>140</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="6"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" ht="16.5" spans="2:6">
-      <c r="B45" s="11">
+      <c r="B45" s="12">
         <v>141</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="6"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="7"/>
     </row>
     <row r="46" ht="16.5" spans="2:6">
-      <c r="B46" s="11">
+      <c r="B46" s="12">
         <v>142</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="6" t="s">
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="47" ht="16.5" spans="2:6">
-      <c r="B47" s="11">
+      <c r="B47" s="12">
         <v>143</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="6"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="7"/>
     </row>
     <row r="48" ht="16.5" spans="2:6">
-      <c r="B48" s="11">
+      <c r="B48" s="12">
         <v>144</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="6"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="7"/>
     </row>
     <row r="49" ht="16.5" spans="2:6">
-      <c r="B49" s="11">
+      <c r="B49" s="12">
         <v>145</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="6"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="7"/>
     </row>
     <row r="50" ht="16.5" spans="2:6">
-      <c r="B50" s="11">
+      <c r="B50" s="12">
         <v>146</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="6"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="7"/>
     </row>
     <row r="51" ht="16.5" spans="2:6">
-      <c r="B51" s="11">
+      <c r="B51" s="12">
         <v>147</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="6"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="7"/>
     </row>
     <row r="52" ht="16.5" spans="2:6">
-      <c r="B52" s="11">
+      <c r="B52" s="12">
         <v>148</v>
       </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="6"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="7"/>
     </row>
     <row r="53" ht="16.5" spans="2:6">
-      <c r="B53" s="11">
+      <c r="B53" s="12">
         <v>149</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="6"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="7"/>
     </row>
     <row r="54" ht="16.5" spans="2:6">
-      <c r="B54" s="11">
+      <c r="B54" s="12">
         <v>150</v>
       </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="6"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="7"/>
     </row>
     <row r="55" ht="16.5" spans="2:6">
-      <c r="B55" s="11">
+      <c r="B55" s="12">
         <v>151</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="6" t="s">
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="56" ht="16.5" spans="2:6">
-      <c r="B56" s="11">
+      <c r="B56" s="12">
         <v>152</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="6"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="7"/>
     </row>
     <row r="57" ht="16.5" spans="2:6">
-      <c r="B57" s="11">
+      <c r="B57" s="12">
         <v>153</v>
       </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="6"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="7"/>
     </row>
     <row r="58" ht="16.5" spans="2:6">
-      <c r="B58" s="11">
+      <c r="B58" s="12">
         <v>154</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="6"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="7"/>
     </row>
     <row r="59" ht="16.5" spans="2:6">
-      <c r="B59" s="11">
+      <c r="B59" s="12">
         <v>155</v>
       </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="6"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="7"/>
     </row>
     <row r="60" ht="16.5" spans="2:6">
-      <c r="B60" s="11">
+      <c r="B60" s="12">
         <v>156</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="6" t="s">
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="61" ht="16.5" spans="2:6">
-      <c r="B61" s="11">
+      <c r="B61" s="12">
         <v>157</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="6"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="7"/>
     </row>
     <row r="62" ht="16.5" spans="2:6">
-      <c r="B62" s="11">
+      <c r="B62" s="12">
         <v>158</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="6"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="7"/>
     </row>
     <row r="63" ht="16.5" spans="2:6">
-      <c r="B63" s="11">
+      <c r="B63" s="12">
         <v>159</v>
       </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="6"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="7"/>
     </row>
     <row r="64" ht="16.5" spans="2:6">
-      <c r="B64" s="11">
+      <c r="B64" s="12">
         <v>160</v>
       </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="6"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="7"/>
     </row>
     <row r="65" ht="16.5" spans="2:6">
-      <c r="B65" s="11">
+      <c r="B65" s="12">
         <v>161</v>
       </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="6"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="7"/>
     </row>
     <row r="66" ht="16.5" spans="2:6">
-      <c r="B66" s="11">
+      <c r="B66" s="12">
         <v>162</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="6" t="s">
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="67" ht="16.5" spans="2:6">
-      <c r="B67" s="11">
+      <c r="B67" s="12">
         <v>163</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="6"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="7"/>
     </row>
     <row r="68" ht="16.5" spans="2:6">
-      <c r="B68" s="11">
+      <c r="B68" s="12">
         <v>164</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="6"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="7"/>
     </row>
     <row r="69" ht="16.5" spans="2:6">
-      <c r="B69" s="11">
+      <c r="B69" s="12">
         <v>165</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="6"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="7"/>
     </row>
     <row r="70" ht="16.5" spans="2:6">
-      <c r="B70" s="11">
+      <c r="B70" s="12">
         <v>166</v>
       </c>
-      <c r="C70" s="11"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="6"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="7"/>
     </row>
     <row r="71" ht="16.5" spans="2:6">
-      <c r="B71" s="11">
+      <c r="B71" s="12">
         <v>167</v>
       </c>
-      <c r="C71" s="11"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="6"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="7"/>
     </row>
     <row r="72" ht="16.5" spans="2:6">
-      <c r="B72" s="11">
+      <c r="B72" s="12">
         <v>168</v>
       </c>
-      <c r="C72" s="11"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="6"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="7"/>
     </row>
     <row r="73" ht="16.5" spans="2:6">
-      <c r="B73" s="11">
+      <c r="B73" s="12">
         <v>169</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="6" t="s">
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="74" ht="16.5" spans="2:6">
-      <c r="B74" s="11">
+      <c r="B74" s="12">
         <v>170</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="6"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="7"/>
     </row>
     <row r="75" ht="16.5" spans="2:6">
-      <c r="B75" s="11">
+      <c r="B75" s="12">
         <v>171</v>
       </c>
-      <c r="C75" s="11"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="6"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="7"/>
     </row>
     <row r="76" ht="16.5" spans="2:6">
-      <c r="B76" s="11">
+      <c r="B76" s="12">
         <v>172</v>
       </c>
-      <c r="C76" s="11"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="6"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="7"/>
     </row>
     <row r="77" ht="16.5" spans="2:6">
-      <c r="B77" s="11">
+      <c r="B77" s="12">
         <v>173</v>
       </c>
-      <c r="C77" s="11"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="6"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="7"/>
     </row>
     <row r="78" ht="16.5" spans="2:6">
-      <c r="B78" s="11">
+      <c r="B78" s="12">
         <v>174</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="6" t="s">
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="79" ht="16.5" spans="2:6">
-      <c r="B79" s="11">
+      <c r="B79" s="12">
         <v>175</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="6"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="7"/>
     </row>
     <row r="80" ht="16.5" spans="2:6">
-      <c r="B80" s="11">
+      <c r="B80" s="12">
         <v>176</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="6"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="7"/>
     </row>
     <row r="81" ht="16.5" spans="2:6">
-      <c r="B81" s="11">
+      <c r="B81" s="12">
         <v>177</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="6"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="7"/>
     </row>
     <row r="82" ht="16.5" spans="2:6">
-      <c r="B82" s="11">
+      <c r="B82" s="12">
         <v>178</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="6"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="7"/>
     </row>
     <row r="83" ht="16.5" spans="2:6">
-      <c r="B83" s="11">
+      <c r="B83" s="12">
         <v>179</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="6"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="7"/>
     </row>
     <row r="84" ht="16.5" spans="2:6">
-      <c r="B84" s="11">
+      <c r="B84" s="12">
         <v>180</v>
       </c>
-      <c r="C84" s="11"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="6"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="7"/>
     </row>
     <row r="85" ht="16.5" spans="2:6">
-      <c r="B85" s="11">
+      <c r="B85" s="12">
         <v>181</v>
       </c>
-      <c r="C85" s="11"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="6"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="7"/>
     </row>
     <row r="86" ht="16.5" spans="2:6">
-      <c r="B86" s="11">
+      <c r="B86" s="12">
         <v>182</v>
       </c>
-      <c r="C86" s="11"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="6"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="7"/>
     </row>
     <row r="87" ht="16.5" spans="2:6">
-      <c r="B87" s="11">
+      <c r="B87" s="12">
         <v>183</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="6" t="s">
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="88" ht="16.5" spans="2:6">
-      <c r="B88" s="11">
+      <c r="B88" s="12">
         <v>184</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="6"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="7"/>
     </row>
     <row r="89" ht="16.5" spans="2:6">
-      <c r="B89" s="11">
+      <c r="B89" s="12">
         <v>185</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="6"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="7"/>
     </row>
     <row r="90" ht="16.5" spans="2:6">
-      <c r="B90" s="11">
+      <c r="B90" s="12">
         <v>186</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="6"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="7"/>
     </row>
     <row r="91" ht="16.5" spans="2:6">
-      <c r="B91" s="11">
+      <c r="B91" s="12">
         <v>187</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="6"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="7"/>
     </row>
     <row r="92" ht="16.5" spans="2:6">
-      <c r="B92" s="11">
+      <c r="B92" s="12">
         <v>188</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C92" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="6"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="7"/>
     </row>
     <row r="93" ht="16.5" spans="2:6">
-      <c r="B93" s="11">
+      <c r="B93" s="12">
         <v>189</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="6"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="7"/>
     </row>
     <row r="94" ht="16.5" spans="2:6">
-      <c r="B94" s="11">
+      <c r="B94" s="12">
         <v>190</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C94" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="6"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="7"/>
     </row>
     <row r="95" ht="16.5" spans="2:6">
-      <c r="B95" s="11">
+      <c r="B95" s="12">
         <v>191</v>
       </c>
-      <c r="C95" s="11"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="6"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="7"/>
     </row>
     <row r="96" ht="16.5" spans="2:6">
-      <c r="B96" s="11">
+      <c r="B96" s="12">
         <v>192</v>
       </c>
-      <c r="C96" s="11"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="6"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="7"/>
     </row>
     <row r="97" ht="16.5" spans="2:6">
-      <c r="B97" s="11">
+      <c r="B97" s="12">
         <v>193</v>
       </c>
-      <c r="C97" s="11"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="6"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="7"/>
     </row>
     <row r="98" ht="16.5" spans="2:6">
-      <c r="B98" s="11">
+      <c r="B98" s="12">
         <v>194</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="C98" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="6" t="s">
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="99" ht="16.5" spans="2:6">
-      <c r="B99" s="11">
+      <c r="B99" s="12">
         <v>195</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C99" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="6"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="7"/>
     </row>
     <row r="100" ht="16.5" spans="2:6">
-      <c r="B100" s="11">
+      <c r="B100" s="12">
         <v>196</v>
       </c>
-      <c r="C100" s="11"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="6"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="7"/>
     </row>
     <row r="101" ht="16.5" spans="2:6">
-      <c r="B101" s="11">
+      <c r="B101" s="12">
         <v>197</v>
       </c>
-      <c r="C101" s="11"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="6"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="7"/>
     </row>
     <row r="102" ht="16.5" spans="2:6">
-      <c r="B102" s="11">
+      <c r="B102" s="12">
         <v>198</v>
       </c>
-      <c r="C102" s="11"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="6"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="7"/>
     </row>
     <row r="103" ht="16.5" spans="2:6">
-      <c r="B103" s="11">
+      <c r="B103" s="12">
         <v>199</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C103" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="6" t="s">
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="104" ht="16.5" spans="2:6">
-      <c r="B104" s="11">
+      <c r="B104" s="12">
         <v>200</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C104" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="6"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="7"/>
     </row>
     <row r="105" ht="16.5" spans="2:6">
-      <c r="B105" s="11">
+      <c r="B105" s="12">
         <v>201</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C105" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="6"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="7"/>
     </row>
     <row r="106" ht="16.5" spans="2:6">
-      <c r="B106" s="11">
+      <c r="B106" s="12">
         <v>202</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C106" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="6"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="7"/>
     </row>
     <row r="107" ht="16.5" spans="2:6">
-      <c r="B107" s="11">
+      <c r="B107" s="12">
         <v>203</v>
       </c>
-      <c r="C107" s="13"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
     </row>
     <row r="108" ht="16.5" spans="2:6">
-      <c r="B108" s="11">
+      <c r="B108" s="12">
         <v>204</v>
       </c>
-      <c r="C108" s="13"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
     </row>
     <row r="109" ht="16.5" spans="2:6">
-      <c r="B109" s="11">
+      <c r="B109" s="12">
         <v>205</v>
       </c>
-      <c r="C109" s="13"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
     </row>
     <row r="110" ht="16.5" spans="2:6">
-      <c r="B110" s="11">
+      <c r="B110" s="12">
         <v>206</v>
       </c>
-      <c r="C110" s="13"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
     </row>
     <row r="111" ht="16.5" spans="2:6">
-      <c r="B111" s="11">
+      <c r="B111" s="12">
         <v>207</v>
       </c>
-      <c r="C111" s="13"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
     </row>
     <row r="112" ht="16.5" spans="2:6">
-      <c r="B112" s="11">
+      <c r="B112" s="12">
         <v>208</v>
       </c>
-      <c r="C112" s="11"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="6"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="7"/>
     </row>
     <row r="113" ht="16.5" spans="2:6">
-      <c r="B113" s="11">
+      <c r="B113" s="12">
         <v>209</v>
       </c>
-      <c r="C113" s="13"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
     </row>
     <row r="114" ht="16.5" spans="2:6">
-      <c r="B114" s="11">
+      <c r="B114" s="12">
         <v>210</v>
       </c>
-      <c r="C114" s="13"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
     </row>
     <row r="115" ht="16.5" spans="2:6">
-      <c r="B115" s="11">
+      <c r="B115" s="12">
         <v>211</v>
       </c>
-      <c r="C115" s="11"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="6"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="7"/>
     </row>
     <row r="116" ht="16.5" spans="2:6">
-      <c r="B116" s="11">
+      <c r="B116" s="12">
         <v>212</v>
       </c>
-      <c r="C116" s="13"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
     </row>
     <row r="117" ht="16.5" spans="2:6">
-      <c r="B117" s="11">
+      <c r="B117" s="12">
         <v>213</v>
       </c>
-      <c r="C117" s="13"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
     </row>
     <row r="118" ht="16.5" spans="2:6">
-      <c r="B118" s="11">
+      <c r="B118" s="12">
         <v>214</v>
       </c>
-      <c r="C118" s="13"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
     </row>
     <row r="119" ht="16.5" spans="2:6">
-      <c r="B119" s="11">
+      <c r="B119" s="12">
         <v>215</v>
       </c>
-      <c r="C119" s="13"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="12"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
     </row>
     <row r="120" ht="16.5" spans="2:6">
-      <c r="B120" s="11">
+      <c r="B120" s="12">
         <v>216</v>
       </c>
-      <c r="C120" s="11"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="6"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="7"/>
     </row>
     <row r="121" ht="16.5" spans="2:6">
-      <c r="B121" s="11">
+      <c r="B121" s="12">
         <v>217</v>
       </c>
-      <c r="C121" s="11"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="6"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="7"/>
     </row>
     <row r="122" ht="16.5" spans="2:6">
-      <c r="B122" s="11">
+      <c r="B122" s="12">
         <v>218</v>
       </c>
-      <c r="C122" s="11"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="12"/>
-      <c r="F122" s="6"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="7"/>
     </row>
     <row r="123" ht="16.5" spans="2:6">
-      <c r="B123" s="11">
+      <c r="B123" s="12">
         <v>219</v>
       </c>
-      <c r="C123" s="11"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="12"/>
-      <c r="F123" s="6"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="7"/>
     </row>
     <row r="124" ht="16.5" spans="2:6">
-      <c r="B124" s="11">
+      <c r="B124" s="12">
         <v>220</v>
       </c>
-      <c r="C124" s="11"/>
-      <c r="D124" s="12"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="6"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="7"/>
     </row>
     <row r="125" ht="16.5" spans="2:6">
-      <c r="B125" s="11">
+      <c r="B125" s="12">
         <v>221</v>
       </c>
-      <c r="C125" s="11"/>
-      <c r="D125" s="12"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="6"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="7"/>
     </row>
     <row r="126" ht="16.5" spans="2:6">
-      <c r="B126" s="11">
+      <c r="B126" s="12">
         <v>222</v>
       </c>
-      <c r="C126" s="11"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="6"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="7"/>
     </row>
     <row r="127" ht="16.5" spans="2:6">
-      <c r="B127" s="11">
+      <c r="B127" s="12">
         <v>223</v>
       </c>
-      <c r="C127" s="11"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="6"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="7"/>
     </row>
     <row r="128" ht="16.5" spans="2:6">
-      <c r="B128" s="11">
+      <c r="B128" s="12">
         <v>224</v>
       </c>
-      <c r="C128" s="11"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="6"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="7"/>
     </row>
     <row r="129" ht="16.5" spans="2:6">
-      <c r="B129" s="11">
+      <c r="B129" s="12">
         <v>225</v>
       </c>
-      <c r="C129" s="11"/>
-      <c r="D129" s="12"/>
-      <c r="E129" s="12"/>
-      <c r="F129" s="6"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="7"/>
     </row>
     <row r="130" ht="16.5" spans="2:6">
-      <c r="B130" s="11">
+      <c r="B130" s="12">
         <v>226</v>
       </c>
-      <c r="C130" s="11"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="12"/>
-      <c r="F130" s="6"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="7"/>
     </row>
     <row r="131" ht="16.5" spans="2:6">
-      <c r="B131" s="11">
+      <c r="B131" s="12">
         <v>227</v>
       </c>
-      <c r="C131" s="11"/>
-      <c r="D131" s="12"/>
-      <c r="E131" s="12"/>
-      <c r="F131" s="6"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="7"/>
     </row>
     <row r="132" ht="16.5" spans="2:6">
-      <c r="B132" s="11">
+      <c r="B132" s="12">
         <v>228</v>
       </c>
-      <c r="C132" s="11"/>
-      <c r="D132" s="12"/>
-      <c r="E132" s="12"/>
-      <c r="F132" s="6"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="7"/>
     </row>
     <row r="133" ht="16.5" spans="2:6">
-      <c r="B133" s="11">
+      <c r="B133" s="12">
         <v>229</v>
       </c>
-      <c r="C133" s="11"/>
-      <c r="D133" s="12"/>
-      <c r="E133" s="12"/>
-      <c r="F133" s="6"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="7"/>
     </row>
     <row r="134" ht="16.5" spans="2:6">
-      <c r="B134" s="11">
+      <c r="B134" s="12">
         <v>230</v>
       </c>
-      <c r="C134" s="11"/>
-      <c r="D134" s="12"/>
-      <c r="E134" s="12"/>
-      <c r="F134" s="6"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="7"/>
     </row>
     <row r="135" ht="16.5" spans="2:6">
-      <c r="B135" s="11">
+      <c r="B135" s="12">
         <v>231</v>
       </c>
-      <c r="C135" s="11"/>
-      <c r="D135" s="12"/>
-      <c r="E135" s="12"/>
-      <c r="F135" s="6"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="7"/>
     </row>
     <row r="136" ht="16.5" spans="2:6">
-      <c r="B136" s="11">
+      <c r="B136" s="12">
         <v>232</v>
       </c>
-      <c r="C136" s="11"/>
-      <c r="D136" s="12"/>
-      <c r="E136" s="12"/>
-      <c r="F136" s="6"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="7"/>
     </row>
     <row r="137" ht="16.5" spans="2:6">
-      <c r="B137" s="11">
+      <c r="B137" s="12">
         <v>233</v>
       </c>
-      <c r="C137" s="11"/>
-      <c r="D137" s="12"/>
-      <c r="E137" s="12"/>
-      <c r="F137" s="6"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="7"/>
     </row>
     <row r="138" ht="16.5" spans="2:6">
-      <c r="B138" s="11">
+      <c r="B138" s="12">
         <v>234</v>
       </c>
-      <c r="C138" s="11"/>
-      <c r="D138" s="12"/>
-      <c r="E138" s="12"/>
-      <c r="F138" s="6"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="7"/>
     </row>
     <row r="139" ht="16.5" spans="2:6">
-      <c r="B139" s="11">
+      <c r="B139" s="12">
         <v>235</v>
       </c>
-      <c r="C139" s="11"/>
-      <c r="D139" s="12"/>
-      <c r="E139" s="12"/>
-      <c r="F139" s="6"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="7"/>
     </row>
     <row r="140" ht="16.5" spans="2:6">
-      <c r="B140" s="11">
+      <c r="B140" s="12">
         <v>236</v>
       </c>
-      <c r="C140" s="11"/>
-      <c r="D140" s="12"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="6"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="7"/>
     </row>
     <row r="141" ht="16.5" spans="2:6">
-      <c r="B141" s="11">
+      <c r="B141" s="12">
         <v>237</v>
       </c>
-      <c r="C141" s="11"/>
-      <c r="D141" s="12"/>
-      <c r="E141" s="12"/>
-      <c r="F141" s="6"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="7"/>
     </row>
     <row r="142" ht="16.5" spans="2:6">
-      <c r="B142" s="11">
+      <c r="B142" s="12">
         <v>238</v>
       </c>
-      <c r="C142" s="11"/>
-      <c r="D142" s="12"/>
-      <c r="E142" s="12"/>
-      <c r="F142" s="6"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="7"/>
     </row>
     <row r="143" ht="16.5" spans="2:6">
-      <c r="B143" s="11">
+      <c r="B143" s="12">
         <v>239</v>
       </c>
-      <c r="C143" s="11"/>
-      <c r="D143" s="12"/>
-      <c r="E143" s="12"/>
-      <c r="F143" s="6"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="7"/>
     </row>
     <row r="144" ht="16.5" spans="2:6">
-      <c r="B144" s="11">
+      <c r="B144" s="12">
         <v>240</v>
       </c>
-      <c r="C144" s="11"/>
-      <c r="D144" s="12"/>
-      <c r="E144" s="12"/>
-      <c r="F144" s="6"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2501,508 +2619,856 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B4:F49"/>
+  <dimension ref="B4:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="31" style="2" customWidth="1"/>
-    <col min="4" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="31" style="3" customWidth="1"/>
+    <col min="4" max="5" width="9" style="3"/>
+    <col min="6" max="6" width="13.25" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="4" ht="20.25" spans="2:6">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>110001</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>110002</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>110003</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>110004</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>110005</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <v>110006</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <v>110007</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>110008</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>110009</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <v>110010</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="5">
+      <c r="B15" s="6">
         <v>110011</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="5">
+      <c r="B16" s="6">
         <v>110012</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="5">
+      <c r="B17" s="6">
         <v>110013</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="5">
+      <c r="B18" s="6">
         <v>110014</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="5">
+      <c r="B19" s="6">
         <v>110015</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="5">
+      <c r="B20" s="6">
         <v>110016</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="5">
+      <c r="B21" s="6">
         <v>110017</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="5">
+      <c r="B22" s="6">
         <v>110018</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="5"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="5">
+      <c r="B25" s="6">
         <v>169001</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6" t="s">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="5">
+      <c r="B26" s="6">
         <v>169002</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="5">
+      <c r="B27" s="6">
         <v>169003</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="5">
+      <c r="B28" s="6">
         <v>169004</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="5">
+      <c r="B29" s="6">
         <v>169005</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="5">
+      <c r="B30" s="6">
         <v>169006</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="5">
+      <c r="B31" s="6">
         <v>169007</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="5">
+      <c r="B32" s="6">
         <v>169008</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="5">
+      <c r="B33" s="6">
         <v>169009</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="5">
+      <c r="B34" s="6">
         <v>169010</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="5">
+      <c r="B35" s="6">
         <v>169011</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="5">
+      <c r="B36" s="6">
         <v>169012</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="5">
+      <c r="B37" s="6">
         <v>169013</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="5">
+      <c r="B38" s="6">
         <v>169014</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="5">
+      <c r="B39" s="6">
         <v>169015</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="5">
+      <c r="B40" s="6">
         <v>169016</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="5">
+      <c r="B41" s="6">
         <v>169017</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="5">
+      <c r="B42" s="6">
         <v>169018</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="5">
+      <c r="B43" s="6">
         <v>169019</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="5">
+      <c r="B44" s="6">
         <v>169020</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="5">
+      <c r="B45" s="6">
         <v>169021</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="5">
+      <c r="B46" s="6">
         <v>169022</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="5">
+      <c r="B47" s="6">
         <v>169023</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="5">
+      <c r="B48" s="6">
         <v>169024</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="5">
+      <c r="B49" s="6">
         <v>169025</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="6">
+        <v>156001</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" s="6">
+        <v>156002</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" s="6">
+        <v>156003</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="6">
+        <v>156004</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="6">
+        <v>156005</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="6">
+        <v>156006</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="6">
+        <v>156007</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="6">
+        <v>156008</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="6">
+        <v>156009</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" s="6">
+        <v>156010</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" s="6">
+        <v>156011</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" s="6">
+        <v>156012</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="6">
+        <v>156013</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="6">
+        <v>156014</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="6">
+        <v>156015</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="6">
+        <v>156016</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" s="6">
+        <v>156017</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" s="6">
+        <v>156018</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" s="6">
+        <v>156019</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" s="6">
+        <v>156020</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" s="6">
+        <v>156021</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="6">
+        <v>156022</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" s="6">
+        <v>156023</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="6">
+        <v>156024</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="6">
+        <v>156025</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3022,56 +3488,56 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:3">
-      <c r="B4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>127</v>
+      <c r="B4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>129</v>
+      <c r="B5" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>131</v>
+      <c r="B6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>133</v>
+      <c r="B7" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>135</v>
+      <c r="B8" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>137</v>
+      <c r="B9" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3083,17 +3549,22 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B4"/>
+  <dimension ref="B4:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
     <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>138</v>
+      <c r="B4" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/ServiceAreaClient/Docs/Device_SN_Description.xlsx
+++ b/ServiceAreaClient/Docs/Device_SN_Description.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167">
   <si>
     <t xml:space="preserve">设备编号用 3x4=12位数字来统一表示:
 </t>
@@ -433,6 +433,51 @@
   </si>
   <si>
     <t>锅炉房回水</t>
+  </si>
+  <si>
+    <t>西区餐厅1</t>
+  </si>
+  <si>
+    <t>西区餐厅2</t>
+  </si>
+  <si>
+    <t>西区餐厅3</t>
+  </si>
+  <si>
+    <t>西去超市</t>
+  </si>
+  <si>
+    <t>西区广场</t>
+  </si>
+  <si>
+    <t>西区特产店</t>
+  </si>
+  <si>
+    <t>西区汽修厂</t>
+  </si>
+  <si>
+    <t>东区总表</t>
+  </si>
+  <si>
+    <t>西区中央空调</t>
+  </si>
+  <si>
+    <t>西区总表</t>
+  </si>
+  <si>
+    <t>西区办公区</t>
+  </si>
+  <si>
+    <t>西区室外洗手池</t>
+  </si>
+  <si>
+    <t>西区员工食堂</t>
+  </si>
+  <si>
+    <t>西区美食城后厨</t>
+  </si>
+  <si>
+    <t>西区美食城营业</t>
   </si>
   <si>
     <t>设备种别编号</t>
@@ -552,9 +597,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="10">
@@ -2619,10 +2664,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B4:F87"/>
+  <dimension ref="B4:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -3314,7 +3359,9 @@
       <c r="B68" s="6">
         <v>156016</v>
       </c>
-      <c r="C68" s="6"/>
+      <c r="C68" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
@@ -3323,7 +3370,9 @@
       <c r="B69" s="6">
         <v>156017</v>
       </c>
-      <c r="C69" s="6"/>
+      <c r="C69" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
@@ -3332,7 +3381,9 @@
       <c r="B70" s="6">
         <v>156018</v>
       </c>
-      <c r="C70" s="6"/>
+      <c r="C70" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
@@ -3341,7 +3392,9 @@
       <c r="B71" s="6">
         <v>156019</v>
       </c>
-      <c r="C71" s="6"/>
+      <c r="C71" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
@@ -3350,7 +3403,9 @@
       <c r="B72" s="6">
         <v>156020</v>
       </c>
-      <c r="C72" s="6"/>
+      <c r="C72" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
@@ -3359,7 +3414,9 @@
       <c r="B73" s="6">
         <v>156021</v>
       </c>
-      <c r="C73" s="6"/>
+      <c r="C73" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
@@ -3368,7 +3425,9 @@
       <c r="B74" s="6">
         <v>156022</v>
       </c>
-      <c r="C74" s="6"/>
+      <c r="C74" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
@@ -3377,7 +3436,9 @@
       <c r="B75" s="6">
         <v>156023</v>
       </c>
-      <c r="C75" s="6"/>
+      <c r="C75" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
@@ -3386,7 +3447,9 @@
       <c r="B76" s="6">
         <v>156024</v>
       </c>
-      <c r="C76" s="6"/>
+      <c r="C76" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
@@ -3395,80 +3458,240 @@
       <c r="B77" s="6">
         <v>156025</v>
       </c>
-      <c r="C77" s="6"/>
+      <c r="C77" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
+      <c r="B78" s="6">
+        <v>156026</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
+      <c r="B79" s="6">
+        <v>156027</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
+      <c r="B80" s="6">
+        <v>156028</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
+      <c r="B81" s="6">
+        <v>156029</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
+      <c r="B82" s="6">
+        <v>156030</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
+      <c r="B83" s="6">
+        <v>156031</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
+      <c r="B84" s="6">
+        <v>156032</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
+      <c r="B85" s="6">
+        <v>156033</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
+      <c r="B86" s="6">
+        <v>156034</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
     </row>
     <row r="87" spans="2:6">
-      <c r="B87" s="6"/>
+      <c r="B87" s="6">
+        <v>156035</v>
+      </c>
       <c r="C87" s="6"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
+    </row>
+    <row r="88" spans="2:6">
+      <c r="B88" s="6">
+        <v>156036</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+    </row>
+    <row r="89" spans="2:6">
+      <c r="B89" s="6">
+        <v>156037</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="B90" s="6">
+        <v>156038</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+    </row>
+    <row r="91" spans="2:6">
+      <c r="B91" s="6">
+        <v>156039</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+    </row>
+    <row r="92" spans="2:6">
+      <c r="B92" s="6">
+        <v>156040</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+    </row>
+    <row r="93" spans="2:6">
+      <c r="B93" s="6">
+        <v>156041</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+    </row>
+    <row r="94" spans="2:6">
+      <c r="B94" s="6">
+        <v>156042</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+    </row>
+    <row r="95" spans="2:6">
+      <c r="B95" s="6">
+        <v>156043</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+    </row>
+    <row r="96" spans="2:6">
+      <c r="B96" s="6">
+        <v>156044</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+    </row>
+    <row r="97" spans="2:6">
+      <c r="B97" s="6">
+        <v>156045</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" s="6">
+        <v>156046</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+    </row>
+    <row r="101" spans="2:6">
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3494,50 +3717,50 @@
   <sheetData>
     <row r="4" spans="2:3">
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="4" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="4" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="4" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="4" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3559,12 +3782,12 @@
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/ServiceAreaClient/Docs/Device_SN_Description.xlsx
+++ b/ServiceAreaClient/Docs/Device_SN_Description.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13755" windowHeight="13230" activeTab="2"/>
+    <workbookView windowWidth="13755" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
   <si>
     <t xml:space="preserve">设备编号用 3x4=12位数字来统一表示:
 </t>
@@ -478,6 +478,21 @@
   </si>
   <si>
     <t>西区美食城营业</t>
+  </si>
+  <si>
+    <t>东区总电表</t>
+  </si>
+  <si>
+    <t>西区电子屏</t>
+  </si>
+  <si>
+    <t>东区加油站</t>
+  </si>
+  <si>
+    <t>西区锅炉房水泵</t>
+  </si>
+  <si>
+    <t>东区电子屏</t>
   </si>
   <si>
     <t>设备种别编号</t>
@@ -597,10 +612,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -1206,7 +1221,7 @@
   <sheetPr/>
   <dimension ref="B3:F144"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -2664,10 +2679,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B4:F101"/>
+  <dimension ref="B4:F130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111:B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -3619,27 +3634,21 @@
       <c r="F92" s="7"/>
     </row>
     <row r="93" spans="2:6">
-      <c r="B93" s="6">
-        <v>156041</v>
-      </c>
+      <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
     </row>
     <row r="94" spans="2:6">
-      <c r="B94" s="6">
-        <v>156042</v>
-      </c>
+      <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
     </row>
     <row r="95" spans="2:6">
-      <c r="B95" s="6">
-        <v>156043</v>
-      </c>
+      <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
@@ -3647,51 +3656,318 @@
     </row>
     <row r="96" spans="2:6">
       <c r="B96" s="6">
-        <v>156044</v>
-      </c>
-      <c r="C96" s="6"/>
+        <v>145001</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
+      <c r="F96" s="7" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="97" spans="2:6">
       <c r="B97" s="6">
-        <v>156045</v>
-      </c>
-      <c r="C97" s="6"/>
+        <v>145002</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
     </row>
     <row r="98" spans="2:6">
       <c r="B98" s="6">
-        <v>156046</v>
-      </c>
-      <c r="C98" s="6"/>
+        <v>145003</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
     </row>
     <row r="99" spans="2:6">
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
+      <c r="B99" s="6">
+        <v>145004</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
     </row>
     <row r="100" spans="2:6">
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
+      <c r="B100" s="6">
+        <v>145005</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>154</v>
+      </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
     </row>
     <row r="101" spans="2:6">
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
+      <c r="B101" s="6">
+        <v>145006</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
+    </row>
+    <row r="102" spans="2:6">
+      <c r="B102" s="6">
+        <v>145007</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+    </row>
+    <row r="103" spans="2:6">
+      <c r="B103" s="6">
+        <v>145008</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+    </row>
+    <row r="104" spans="2:6">
+      <c r="B104" s="6">
+        <v>145009</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+    </row>
+    <row r="105" spans="2:6">
+      <c r="B105" s="6">
+        <v>145010</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+    </row>
+    <row r="106" spans="2:6">
+      <c r="B106" s="6">
+        <v>145011</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+    </row>
+    <row r="107" spans="2:6">
+      <c r="B107" s="6">
+        <v>145012</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+    </row>
+    <row r="108" spans="2:6">
+      <c r="B108" s="6">
+        <v>145013</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="B109" s="6">
+        <v>145014</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110" s="6">
+        <v>145015</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="B111" s="6">
+        <v>145016</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+    </row>
+    <row r="112" spans="2:6">
+      <c r="B112" s="6">
+        <v>145017</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+    </row>
+    <row r="113" spans="2:6">
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+    </row>
+    <row r="118" spans="2:6">
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+    </row>
+    <row r="119" spans="2:6">
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+    </row>
+    <row r="120" spans="2:6">
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+    </row>
+    <row r="121" spans="2:6">
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+    </row>
+    <row r="122" spans="2:6">
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+    </row>
+    <row r="123" spans="2:6">
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+    </row>
+    <row r="124" spans="2:6">
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+    </row>
+    <row r="125" spans="2:6">
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+    </row>
+    <row r="126" spans="2:6">
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+    </row>
+    <row r="127" spans="2:6">
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+    </row>
+    <row r="128" spans="2:6">
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+    </row>
+    <row r="129" spans="2:6">
+      <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+    </row>
+    <row r="130" spans="2:6">
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3717,50 +3993,50 @@
   <sheetData>
     <row r="4" spans="2:3">
       <c r="B4" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3782,12 +4058,12 @@
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/ServiceAreaClient/Docs/Device_SN_Description.xlsx
+++ b/ServiceAreaClient/Docs/Device_SN_Description.xlsx
@@ -612,9 +612,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="10">
@@ -2679,10 +2679,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B4:F130"/>
+  <dimension ref="B4:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111:B112"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53:F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -3580,27 +3580,21 @@
       <c r="F86" s="7"/>
     </row>
     <row r="87" spans="2:6">
-      <c r="B87" s="6">
-        <v>156035</v>
-      </c>
+      <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="6">
-        <v>156036</v>
-      </c>
+      <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="6">
-        <v>156037</v>
-      </c>
+      <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
@@ -3608,71 +3602,89 @@
     </row>
     <row r="90" spans="2:6">
       <c r="B90" s="6">
-        <v>156038</v>
-      </c>
-      <c r="C90" s="6"/>
+        <v>145001</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
+      <c r="F90" s="7" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="91" spans="2:6">
       <c r="B91" s="6">
-        <v>156039</v>
-      </c>
-      <c r="C91" s="6"/>
+        <v>145002</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
     </row>
     <row r="92" spans="2:6">
       <c r="B92" s="6">
-        <v>156040</v>
-      </c>
-      <c r="C92" s="6"/>
+        <v>145003</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
     </row>
     <row r="93" spans="2:6">
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
+      <c r="B93" s="6">
+        <v>145004</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
     </row>
     <row r="94" spans="2:6">
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
+      <c r="B94" s="6">
+        <v>145005</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>154</v>
+      </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
     </row>
     <row r="95" spans="2:6">
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
+      <c r="B95" s="6">
+        <v>145006</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
     </row>
     <row r="96" spans="2:6">
       <c r="B96" s="6">
-        <v>145001</v>
+        <v>145007</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
-      <c r="F96" s="7" t="s">
-        <v>49</v>
-      </c>
+      <c r="F96" s="7"/>
     </row>
     <row r="97" spans="2:6">
       <c r="B97" s="6">
-        <v>145002</v>
+        <v>145008</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
@@ -3680,10 +3692,10 @@
     </row>
     <row r="98" spans="2:6">
       <c r="B98" s="6">
-        <v>145003</v>
+        <v>145009</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
@@ -3691,10 +3703,10 @@
     </row>
     <row r="99" spans="2:6">
       <c r="B99" s="6">
-        <v>145004</v>
+        <v>145010</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
@@ -3702,10 +3714,10 @@
     </row>
     <row r="100" spans="2:6">
       <c r="B100" s="6">
-        <v>145005</v>
+        <v>145011</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
@@ -3713,10 +3725,10 @@
     </row>
     <row r="101" spans="2:6">
       <c r="B101" s="6">
-        <v>145006</v>
+        <v>145012</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
@@ -3724,10 +3736,10 @@
     </row>
     <row r="102" spans="2:6">
       <c r="B102" s="6">
-        <v>145007</v>
+        <v>145013</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
@@ -3735,10 +3747,10 @@
     </row>
     <row r="103" spans="2:6">
       <c r="B103" s="6">
-        <v>145008</v>
+        <v>145014</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
@@ -3746,10 +3758,10 @@
     </row>
     <row r="104" spans="2:6">
       <c r="B104" s="6">
-        <v>145009</v>
+        <v>145015</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
@@ -3757,10 +3769,10 @@
     </row>
     <row r="105" spans="2:6">
       <c r="B105" s="6">
-        <v>145010</v>
+        <v>145016</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
@@ -3768,77 +3780,53 @@
     </row>
     <row r="106" spans="2:6">
       <c r="B106" s="6">
-        <v>145011</v>
+        <v>145017</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
     </row>
     <row r="107" spans="2:6">
-      <c r="B107" s="6">
-        <v>145012</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>118</v>
-      </c>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
     </row>
     <row r="108" spans="2:6">
-      <c r="B108" s="6">
-        <v>145013</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>119</v>
-      </c>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
     </row>
     <row r="109" spans="2:6">
-      <c r="B109" s="6">
-        <v>145014</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>117</v>
-      </c>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
     </row>
     <row r="110" spans="2:6">
-      <c r="B110" s="6">
-        <v>145015</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>136</v>
-      </c>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
     </row>
     <row r="111" spans="2:6">
-      <c r="B111" s="6">
-        <v>145016</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>137</v>
-      </c>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
     </row>
     <row r="112" spans="2:6">
-      <c r="B112" s="6">
-        <v>145017</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>157</v>
-      </c>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
@@ -3927,48 +3915,7 @@
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
     </row>
-    <row r="125" spans="2:6">
-      <c r="B125" s="6"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-    </row>
-    <row r="126" spans="2:6">
-      <c r="B126" s="6"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-    </row>
-    <row r="127" spans="2:6">
-      <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
-    </row>
-    <row r="128" spans="2:6">
-      <c r="B128" s="6"/>
-      <c r="C128" s="6"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
-    </row>
-    <row r="129" spans="2:6">
-      <c r="B129" s="6"/>
-      <c r="C129" s="6"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-    </row>
-    <row r="130" spans="2:6">
-      <c r="B130" s="6"/>
-      <c r="C130" s="6"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
-    </row>
+    <row r="135" ht="13.5"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/ServiceAreaClient/Docs/Device_SN_Description.xlsx
+++ b/ServiceAreaClient/Docs/Device_SN_Description.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13755" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13755" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="设备种别编号" sheetId="4" r:id="rId4"/>
     <sheet name="具体设备编号" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="178">
   <si>
     <t xml:space="preserve">设备编号用 3x4=12位数字来统一表示:
 </t>
@@ -536,7 +536,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>对于串口设备来说</t>
     </r>
@@ -554,7 +553,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>就是设备的地址</t>
     </r>
@@ -565,7 +563,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>其它串口以外</t>
     </r>
@@ -583,7 +580,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>现在只有摄像头</t>
     </r>
@@ -601,22 +597,39 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>是序号</t>
     </r>
+  </si>
+  <si>
+    <t>北区餐厅前厅</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>北区餐厅后厨</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>南区餐厅前厅</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>南区餐厅后厨</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>北区客流</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>南区客流</t>
+    <phoneticPr fontId="9"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -628,31 +641,30 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Microsoft YaHei"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="62"/>
       <name val="Microsoft YaHei"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Microsoft YaHei"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Microsoft YaHei"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -664,18 +676,18 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Microsoft YaHei"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="30"/>
       <name val="Microsoft YaHei"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -722,23 +734,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -795,14 +792,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+  <cellStyles count="1">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -1101,6 +1095,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1133,15 +1128,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="15"/>
   </cols>
@@ -1154,17 +1148,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:2">
       <c r="B6" s="15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:2">
       <c r="B9" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:2">
       <c r="B10" s="15" t="s">
         <v>3</v>
       </c>
@@ -1185,7 +1179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:8">
       <c r="A18" s="15">
         <v>4</v>
       </c>
@@ -1193,7 +1187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="1:8">
       <c r="B19" s="15" t="s">
         <v>7</v>
       </c>
@@ -1201,7 +1195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="1:8">
       <c r="B20" s="15" t="s">
         <v>9</v>
       </c>
@@ -1210,28 +1204,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:F144"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9" style="9"/>
     <col min="3" max="3" width="36" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="20.25" spans="2:6">
+    <row r="3" spans="2:6" ht="20.25">
       <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
@@ -1244,7 +1237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="2:6">
+    <row r="4" spans="2:6" ht="16.5">
       <c r="B4" s="12">
         <v>100</v>
       </c>
@@ -1257,7 +1250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="2:6">
+    <row r="5" spans="2:6" ht="16.5">
       <c r="B5" s="12">
         <v>101</v>
       </c>
@@ -1268,7 +1261,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" ht="16.5" spans="2:6">
+    <row r="6" spans="2:6" ht="16.5">
       <c r="B6" s="12">
         <v>102</v>
       </c>
@@ -1279,7 +1272,7 @@
       <c r="E6" s="13"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" ht="16.5" spans="2:6">
+    <row r="7" spans="2:6" ht="16.5">
       <c r="B7" s="12">
         <v>103</v>
       </c>
@@ -1290,7 +1283,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" ht="16.5" spans="2:6">
+    <row r="8" spans="2:6" ht="16.5">
       <c r="B8" s="12">
         <v>104</v>
       </c>
@@ -1301,7 +1294,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" ht="16.5" spans="2:6">
+    <row r="9" spans="2:6" ht="16.5">
       <c r="B9" s="12">
         <v>105</v>
       </c>
@@ -1312,7 +1305,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" ht="16.5" spans="2:6">
+    <row r="10" spans="2:6" ht="16.5">
       <c r="B10" s="12">
         <v>106</v>
       </c>
@@ -1323,7 +1316,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" ht="16.5" spans="2:6">
+    <row r="11" spans="2:6" ht="16.5">
       <c r="B11" s="12">
         <v>107</v>
       </c>
@@ -1334,7 +1327,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" ht="16.5" spans="2:6">
+    <row r="12" spans="2:6" ht="16.5">
       <c r="B12" s="12">
         <v>108</v>
       </c>
@@ -1345,7 +1338,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" ht="16.5" spans="2:6">
+    <row r="13" spans="2:6" ht="16.5">
       <c r="B13" s="12">
         <v>109</v>
       </c>
@@ -1356,7 +1349,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" ht="16.5" spans="2:6">
+    <row r="14" spans="2:6" ht="16.5">
       <c r="B14" s="12">
         <v>110</v>
       </c>
@@ -1367,7 +1360,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" ht="16.5" spans="2:6">
+    <row r="15" spans="2:6" ht="16.5">
       <c r="B15" s="12">
         <v>111</v>
       </c>
@@ -1376,7 +1369,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" ht="16.5" spans="2:6">
+    <row r="16" spans="2:6" ht="16.5">
       <c r="B16" s="12">
         <v>112</v>
       </c>
@@ -1385,7 +1378,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" ht="16.5" spans="2:6">
+    <row r="17" spans="2:6" ht="16.5">
       <c r="B17" s="12">
         <v>113</v>
       </c>
@@ -1394,7 +1387,7 @@
       <c r="E17" s="13"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" ht="16.5" spans="2:6">
+    <row r="18" spans="2:6" ht="16.5">
       <c r="B18" s="12">
         <v>114</v>
       </c>
@@ -1407,7 +1400,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="2:6">
+    <row r="19" spans="2:6" ht="16.5">
       <c r="B19" s="12">
         <v>115</v>
       </c>
@@ -1418,7 +1411,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" ht="16.5" spans="2:6">
+    <row r="20" spans="2:6" ht="16.5">
       <c r="B20" s="12">
         <v>116</v>
       </c>
@@ -1429,7 +1422,7 @@
       <c r="E20" s="13"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" ht="16.5" spans="2:6">
+    <row r="21" spans="2:6" ht="16.5">
       <c r="B21" s="12">
         <v>117</v>
       </c>
@@ -1440,7 +1433,7 @@
       <c r="E21" s="13"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" ht="16.5" spans="2:6">
+    <row r="22" spans="2:6" ht="16.5">
       <c r="B22" s="12">
         <v>118</v>
       </c>
@@ -1451,7 +1444,7 @@
       <c r="E22" s="13"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" ht="16.5" spans="2:6">
+    <row r="23" spans="2:6" ht="16.5">
       <c r="B23" s="12">
         <v>119</v>
       </c>
@@ -1462,7 +1455,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" ht="16.5" spans="2:6">
+    <row r="24" spans="2:6" ht="16.5">
       <c r="B24" s="12">
         <v>120</v>
       </c>
@@ -1471,7 +1464,7 @@
       <c r="E24" s="13"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" ht="16.5" spans="2:6">
+    <row r="25" spans="2:6" ht="16.5">
       <c r="B25" s="12">
         <v>121</v>
       </c>
@@ -1480,7 +1473,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" ht="16.5" spans="2:6">
+    <row r="26" spans="2:6" ht="16.5">
       <c r="B26" s="12">
         <v>122</v>
       </c>
@@ -1489,7 +1482,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" ht="16.5" spans="2:6">
+    <row r="27" spans="2:6" ht="16.5">
       <c r="B27" s="12">
         <v>123</v>
       </c>
@@ -1502,7 +1495,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="2:6">
+    <row r="28" spans="2:6" ht="16.5">
       <c r="B28" s="12">
         <v>124</v>
       </c>
@@ -1513,7 +1506,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" ht="16.5" spans="2:6">
+    <row r="29" spans="2:6" ht="16.5">
       <c r="B29" s="12">
         <v>125</v>
       </c>
@@ -1524,7 +1517,7 @@
       <c r="E29" s="13"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" ht="16.5" spans="2:6">
+    <row r="30" spans="2:6" ht="16.5">
       <c r="B30" s="12">
         <v>126</v>
       </c>
@@ -1533,7 +1526,7 @@
       <c r="E30" s="13"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" ht="16.5" spans="2:6">
+    <row r="31" spans="2:6" ht="16.5">
       <c r="B31" s="12">
         <v>127</v>
       </c>
@@ -1542,7 +1535,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" ht="16.5" spans="2:6">
+    <row r="32" spans="2:6" ht="16.5">
       <c r="B32" s="12">
         <v>128</v>
       </c>
@@ -1551,7 +1544,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" ht="16.5" spans="2:6">
+    <row r="33" spans="2:6" ht="16.5">
       <c r="B33" s="12">
         <v>129</v>
       </c>
@@ -1564,7 +1557,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="2:6">
+    <row r="34" spans="2:6" ht="16.5">
       <c r="B34" s="12">
         <v>130</v>
       </c>
@@ -1575,7 +1568,7 @@
       <c r="E34" s="13"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" ht="16.5" spans="2:6">
+    <row r="35" spans="2:6" ht="16.5">
       <c r="B35" s="12">
         <v>131</v>
       </c>
@@ -1586,7 +1579,7 @@
       <c r="E35" s="13"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" ht="16.5" spans="2:6">
+    <row r="36" spans="2:6" ht="16.5">
       <c r="B36" s="12">
         <v>132</v>
       </c>
@@ -1597,7 +1590,7 @@
       <c r="E36" s="13"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" ht="16.5" spans="2:6">
+    <row r="37" spans="2:6" ht="16.5">
       <c r="B37" s="12">
         <v>133</v>
       </c>
@@ -1606,7 +1599,7 @@
       <c r="E37" s="13"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" ht="16.5" spans="2:6">
+    <row r="38" spans="2:6" ht="16.5">
       <c r="B38" s="12">
         <v>134</v>
       </c>
@@ -1615,7 +1608,7 @@
       <c r="E38" s="13"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" ht="16.5" spans="2:6">
+    <row r="39" spans="2:6" ht="16.5">
       <c r="B39" s="12">
         <v>135</v>
       </c>
@@ -1624,7 +1617,7 @@
       <c r="E39" s="13"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" ht="16.5" spans="2:6">
+    <row r="40" spans="2:6" ht="16.5">
       <c r="B40" s="12">
         <v>136</v>
       </c>
@@ -1637,7 +1630,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="2:6">
+    <row r="41" spans="2:6" ht="16.5">
       <c r="B41" s="12">
         <v>137</v>
       </c>
@@ -1648,7 +1641,7 @@
       <c r="E41" s="13"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" ht="16.5" spans="2:6">
+    <row r="42" spans="2:6" ht="16.5">
       <c r="B42" s="12">
         <v>138</v>
       </c>
@@ -1659,7 +1652,7 @@
       <c r="E42" s="13"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" ht="16.5" spans="2:6">
+    <row r="43" spans="2:6" ht="16.5">
       <c r="B43" s="12">
         <v>139</v>
       </c>
@@ -1668,7 +1661,7 @@
       <c r="E43" s="13"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" ht="16.5" spans="2:6">
+    <row r="44" spans="2:6" ht="16.5">
       <c r="B44" s="12">
         <v>140</v>
       </c>
@@ -1677,7 +1670,7 @@
       <c r="E44" s="13"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" ht="16.5" spans="2:6">
+    <row r="45" spans="2:6" ht="16.5">
       <c r="B45" s="12">
         <v>141</v>
       </c>
@@ -1686,7 +1679,7 @@
       <c r="E45" s="13"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" ht="16.5" spans="2:6">
+    <row r="46" spans="2:6" ht="16.5">
       <c r="B46" s="12">
         <v>142</v>
       </c>
@@ -1699,7 +1692,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="2:6">
+    <row r="47" spans="2:6" ht="16.5">
       <c r="B47" s="12">
         <v>143</v>
       </c>
@@ -1710,7 +1703,7 @@
       <c r="E47" s="13"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" ht="16.5" spans="2:6">
+    <row r="48" spans="2:6" ht="16.5">
       <c r="B48" s="12">
         <v>144</v>
       </c>
@@ -1721,7 +1714,7 @@
       <c r="E48" s="13"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" ht="16.5" spans="2:6">
+    <row r="49" spans="2:6" ht="16.5">
       <c r="B49" s="12">
         <v>145</v>
       </c>
@@ -1732,7 +1725,7 @@
       <c r="E49" s="13"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" ht="16.5" spans="2:6">
+    <row r="50" spans="2:6" ht="16.5">
       <c r="B50" s="12">
         <v>146</v>
       </c>
@@ -1743,7 +1736,7 @@
       <c r="E50" s="13"/>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" ht="16.5" spans="2:6">
+    <row r="51" spans="2:6" ht="16.5">
       <c r="B51" s="12">
         <v>147</v>
       </c>
@@ -1754,7 +1747,7 @@
       <c r="E51" s="13"/>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" ht="16.5" spans="2:6">
+    <row r="52" spans="2:6" ht="16.5">
       <c r="B52" s="12">
         <v>148</v>
       </c>
@@ -1763,7 +1756,7 @@
       <c r="E52" s="13"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" ht="16.5" spans="2:6">
+    <row r="53" spans="2:6" ht="16.5">
       <c r="B53" s="12">
         <v>149</v>
       </c>
@@ -1772,7 +1765,7 @@
       <c r="E53" s="13"/>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" ht="16.5" spans="2:6">
+    <row r="54" spans="2:6" ht="16.5">
       <c r="B54" s="12">
         <v>150</v>
       </c>
@@ -1781,7 +1774,7 @@
       <c r="E54" s="13"/>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" ht="16.5" spans="2:6">
+    <row r="55" spans="2:6" ht="16.5">
       <c r="B55" s="12">
         <v>151</v>
       </c>
@@ -1794,7 +1787,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" ht="16.5" spans="2:6">
+    <row r="56" spans="2:6" ht="16.5">
       <c r="B56" s="12">
         <v>152</v>
       </c>
@@ -1805,7 +1798,7 @@
       <c r="E56" s="13"/>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" ht="16.5" spans="2:6">
+    <row r="57" spans="2:6" ht="16.5">
       <c r="B57" s="12">
         <v>153</v>
       </c>
@@ -1814,7 +1807,7 @@
       <c r="E57" s="13"/>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" ht="16.5" spans="2:6">
+    <row r="58" spans="2:6" ht="16.5">
       <c r="B58" s="12">
         <v>154</v>
       </c>
@@ -1823,7 +1816,7 @@
       <c r="E58" s="13"/>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" ht="16.5" spans="2:6">
+    <row r="59" spans="2:6" ht="16.5">
       <c r="B59" s="12">
         <v>155</v>
       </c>
@@ -1832,7 +1825,7 @@
       <c r="E59" s="13"/>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" ht="16.5" spans="2:6">
+    <row r="60" spans="2:6" ht="16.5">
       <c r="B60" s="12">
         <v>156</v>
       </c>
@@ -1845,7 +1838,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" ht="16.5" spans="2:6">
+    <row r="61" spans="2:6" ht="16.5">
       <c r="B61" s="12">
         <v>157</v>
       </c>
@@ -1856,7 +1849,7 @@
       <c r="E61" s="13"/>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" ht="16.5" spans="2:6">
+    <row r="62" spans="2:6" ht="16.5">
       <c r="B62" s="12">
         <v>158</v>
       </c>
@@ -1867,7 +1860,7 @@
       <c r="E62" s="13"/>
       <c r="F62" s="7"/>
     </row>
-    <row r="63" ht="16.5" spans="2:6">
+    <row r="63" spans="2:6" ht="16.5">
       <c r="B63" s="12">
         <v>159</v>
       </c>
@@ -1876,7 +1869,7 @@
       <c r="E63" s="13"/>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" ht="16.5" spans="2:6">
+    <row r="64" spans="2:6" ht="16.5">
       <c r="B64" s="12">
         <v>160</v>
       </c>
@@ -1885,7 +1878,7 @@
       <c r="E64" s="13"/>
       <c r="F64" s="7"/>
     </row>
-    <row r="65" ht="16.5" spans="2:6">
+    <row r="65" spans="2:6" ht="16.5">
       <c r="B65" s="12">
         <v>161</v>
       </c>
@@ -1894,7 +1887,7 @@
       <c r="E65" s="13"/>
       <c r="F65" s="7"/>
     </row>
-    <row r="66" ht="16.5" spans="2:6">
+    <row r="66" spans="2:6" ht="16.5">
       <c r="B66" s="12">
         <v>162</v>
       </c>
@@ -1907,7 +1900,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" ht="16.5" spans="2:6">
+    <row r="67" spans="2:6" ht="16.5">
       <c r="B67" s="12">
         <v>163</v>
       </c>
@@ -1918,7 +1911,7 @@
       <c r="E67" s="13"/>
       <c r="F67" s="7"/>
     </row>
-    <row r="68" ht="16.5" spans="2:6">
+    <row r="68" spans="2:6" ht="16.5">
       <c r="B68" s="12">
         <v>164</v>
       </c>
@@ -1929,7 +1922,7 @@
       <c r="E68" s="13"/>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" ht="16.5" spans="2:6">
+    <row r="69" spans="2:6" ht="16.5">
       <c r="B69" s="12">
         <v>165</v>
       </c>
@@ -1940,7 +1933,7 @@
       <c r="E69" s="13"/>
       <c r="F69" s="7"/>
     </row>
-    <row r="70" ht="16.5" spans="2:6">
+    <row r="70" spans="2:6" ht="16.5">
       <c r="B70" s="12">
         <v>166</v>
       </c>
@@ -1949,7 +1942,7 @@
       <c r="E70" s="13"/>
       <c r="F70" s="7"/>
     </row>
-    <row r="71" ht="16.5" spans="2:6">
+    <row r="71" spans="2:6" ht="16.5">
       <c r="B71" s="12">
         <v>167</v>
       </c>
@@ -1958,7 +1951,7 @@
       <c r="E71" s="13"/>
       <c r="F71" s="7"/>
     </row>
-    <row r="72" ht="16.5" spans="2:6">
+    <row r="72" spans="2:6" ht="16.5">
       <c r="B72" s="12">
         <v>168</v>
       </c>
@@ -1967,7 +1960,7 @@
       <c r="E72" s="13"/>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" ht="16.5" spans="2:6">
+    <row r="73" spans="2:6" ht="16.5">
       <c r="B73" s="12">
         <v>169</v>
       </c>
@@ -1980,7 +1973,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="74" ht="16.5" spans="2:6">
+    <row r="74" spans="2:6" ht="16.5">
       <c r="B74" s="12">
         <v>170</v>
       </c>
@@ -1991,7 +1984,7 @@
       <c r="E74" s="13"/>
       <c r="F74" s="7"/>
     </row>
-    <row r="75" ht="16.5" spans="2:6">
+    <row r="75" spans="2:6" ht="16.5">
       <c r="B75" s="12">
         <v>171</v>
       </c>
@@ -2000,7 +1993,7 @@
       <c r="E75" s="13"/>
       <c r="F75" s="7"/>
     </row>
-    <row r="76" ht="16.5" spans="2:6">
+    <row r="76" spans="2:6" ht="16.5">
       <c r="B76" s="12">
         <v>172</v>
       </c>
@@ -2009,7 +2002,7 @@
       <c r="E76" s="13"/>
       <c r="F76" s="7"/>
     </row>
-    <row r="77" ht="16.5" spans="2:6">
+    <row r="77" spans="2:6" ht="16.5">
       <c r="B77" s="12">
         <v>173</v>
       </c>
@@ -2018,7 +2011,7 @@
       <c r="E77" s="13"/>
       <c r="F77" s="7"/>
     </row>
-    <row r="78" ht="16.5" spans="2:6">
+    <row r="78" spans="2:6" ht="16.5">
       <c r="B78" s="12">
         <v>174</v>
       </c>
@@ -2031,7 +2024,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" ht="16.5" spans="2:6">
+    <row r="79" spans="2:6" ht="16.5">
       <c r="B79" s="12">
         <v>175</v>
       </c>
@@ -2042,7 +2035,7 @@
       <c r="E79" s="13"/>
       <c r="F79" s="7"/>
     </row>
-    <row r="80" ht="16.5" spans="2:6">
+    <row r="80" spans="2:6" ht="16.5">
       <c r="B80" s="12">
         <v>176</v>
       </c>
@@ -2053,7 +2046,7 @@
       <c r="E80" s="13"/>
       <c r="F80" s="7"/>
     </row>
-    <row r="81" ht="16.5" spans="2:6">
+    <row r="81" spans="2:6" ht="16.5">
       <c r="B81" s="12">
         <v>177</v>
       </c>
@@ -2064,7 +2057,7 @@
       <c r="E81" s="13"/>
       <c r="F81" s="7"/>
     </row>
-    <row r="82" ht="16.5" spans="2:6">
+    <row r="82" spans="2:6" ht="16.5">
       <c r="B82" s="12">
         <v>178</v>
       </c>
@@ -2075,7 +2068,7 @@
       <c r="E82" s="13"/>
       <c r="F82" s="7"/>
     </row>
-    <row r="83" ht="16.5" spans="2:6">
+    <row r="83" spans="2:6" ht="16.5">
       <c r="B83" s="12">
         <v>179</v>
       </c>
@@ -2086,7 +2079,7 @@
       <c r="E83" s="13"/>
       <c r="F83" s="7"/>
     </row>
-    <row r="84" ht="16.5" spans="2:6">
+    <row r="84" spans="2:6" ht="16.5">
       <c r="B84" s="12">
         <v>180</v>
       </c>
@@ -2095,7 +2088,7 @@
       <c r="E84" s="13"/>
       <c r="F84" s="7"/>
     </row>
-    <row r="85" ht="16.5" spans="2:6">
+    <row r="85" spans="2:6" ht="16.5">
       <c r="B85" s="12">
         <v>181</v>
       </c>
@@ -2104,7 +2097,7 @@
       <c r="E85" s="13"/>
       <c r="F85" s="7"/>
     </row>
-    <row r="86" ht="16.5" spans="2:6">
+    <row r="86" spans="2:6" ht="16.5">
       <c r="B86" s="12">
         <v>182</v>
       </c>
@@ -2113,7 +2106,7 @@
       <c r="E86" s="13"/>
       <c r="F86" s="7"/>
     </row>
-    <row r="87" ht="16.5" spans="2:6">
+    <row r="87" spans="2:6" ht="16.5">
       <c r="B87" s="12">
         <v>183</v>
       </c>
@@ -2126,7 +2119,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="88" ht="16.5" spans="2:6">
+    <row r="88" spans="2:6" ht="16.5">
       <c r="B88" s="12">
         <v>184</v>
       </c>
@@ -2137,7 +2130,7 @@
       <c r="E88" s="13"/>
       <c r="F88" s="7"/>
     </row>
-    <row r="89" ht="16.5" spans="2:6">
+    <row r="89" spans="2:6" ht="16.5">
       <c r="B89" s="12">
         <v>185</v>
       </c>
@@ -2148,7 +2141,7 @@
       <c r="E89" s="13"/>
       <c r="F89" s="7"/>
     </row>
-    <row r="90" ht="16.5" spans="2:6">
+    <row r="90" spans="2:6" ht="16.5">
       <c r="B90" s="12">
         <v>186</v>
       </c>
@@ -2159,7 +2152,7 @@
       <c r="E90" s="13"/>
       <c r="F90" s="7"/>
     </row>
-    <row r="91" ht="16.5" spans="2:6">
+    <row r="91" spans="2:6" ht="16.5">
       <c r="B91" s="12">
         <v>187</v>
       </c>
@@ -2170,7 +2163,7 @@
       <c r="E91" s="13"/>
       <c r="F91" s="7"/>
     </row>
-    <row r="92" ht="16.5" spans="2:6">
+    <row r="92" spans="2:6" ht="16.5">
       <c r="B92" s="12">
         <v>188</v>
       </c>
@@ -2181,7 +2174,7 @@
       <c r="E92" s="13"/>
       <c r="F92" s="7"/>
     </row>
-    <row r="93" ht="16.5" spans="2:6">
+    <row r="93" spans="2:6" ht="16.5">
       <c r="B93" s="12">
         <v>189</v>
       </c>
@@ -2192,7 +2185,7 @@
       <c r="E93" s="13"/>
       <c r="F93" s="7"/>
     </row>
-    <row r="94" ht="16.5" spans="2:6">
+    <row r="94" spans="2:6" ht="16.5">
       <c r="B94" s="12">
         <v>190</v>
       </c>
@@ -2203,7 +2196,7 @@
       <c r="E94" s="13"/>
       <c r="F94" s="7"/>
     </row>
-    <row r="95" ht="16.5" spans="2:6">
+    <row r="95" spans="2:6" ht="16.5">
       <c r="B95" s="12">
         <v>191</v>
       </c>
@@ -2212,7 +2205,7 @@
       <c r="E95" s="13"/>
       <c r="F95" s="7"/>
     </row>
-    <row r="96" ht="16.5" spans="2:6">
+    <row r="96" spans="2:6" ht="16.5">
       <c r="B96" s="12">
         <v>192</v>
       </c>
@@ -2221,7 +2214,7 @@
       <c r="E96" s="13"/>
       <c r="F96" s="7"/>
     </row>
-    <row r="97" ht="16.5" spans="2:6">
+    <row r="97" spans="2:6" ht="16.5">
       <c r="B97" s="12">
         <v>193</v>
       </c>
@@ -2230,7 +2223,7 @@
       <c r="E97" s="13"/>
       <c r="F97" s="7"/>
     </row>
-    <row r="98" ht="16.5" spans="2:6">
+    <row r="98" spans="2:6" ht="16.5">
       <c r="B98" s="12">
         <v>194</v>
       </c>
@@ -2243,7 +2236,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="99" ht="16.5" spans="2:6">
+    <row r="99" spans="2:6" ht="16.5">
       <c r="B99" s="12">
         <v>195</v>
       </c>
@@ -2254,7 +2247,7 @@
       <c r="E99" s="13"/>
       <c r="F99" s="7"/>
     </row>
-    <row r="100" ht="16.5" spans="2:6">
+    <row r="100" spans="2:6" ht="16.5">
       <c r="B100" s="12">
         <v>196</v>
       </c>
@@ -2263,7 +2256,7 @@
       <c r="E100" s="13"/>
       <c r="F100" s="7"/>
     </row>
-    <row r="101" ht="16.5" spans="2:6">
+    <row r="101" spans="2:6" ht="16.5">
       <c r="B101" s="12">
         <v>197</v>
       </c>
@@ -2272,7 +2265,7 @@
       <c r="E101" s="13"/>
       <c r="F101" s="7"/>
     </row>
-    <row r="102" ht="16.5" spans="2:6">
+    <row r="102" spans="2:6" ht="16.5">
       <c r="B102" s="12">
         <v>198</v>
       </c>
@@ -2281,7 +2274,7 @@
       <c r="E102" s="13"/>
       <c r="F102" s="7"/>
     </row>
-    <row r="103" ht="16.5" spans="2:6">
+    <row r="103" spans="2:6" ht="16.5">
       <c r="B103" s="12">
         <v>199</v>
       </c>
@@ -2294,7 +2287,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="104" ht="16.5" spans="2:6">
+    <row r="104" spans="2:6" ht="16.5">
       <c r="B104" s="12">
         <v>200</v>
       </c>
@@ -2305,7 +2298,7 @@
       <c r="E104" s="13"/>
       <c r="F104" s="7"/>
     </row>
-    <row r="105" ht="16.5" spans="2:6">
+    <row r="105" spans="2:6" ht="16.5">
       <c r="B105" s="12">
         <v>201</v>
       </c>
@@ -2316,7 +2309,7 @@
       <c r="E105" s="13"/>
       <c r="F105" s="7"/>
     </row>
-    <row r="106" ht="16.5" spans="2:6">
+    <row r="106" spans="2:6" ht="16.5">
       <c r="B106" s="12">
         <v>202</v>
       </c>
@@ -2327,7 +2320,7 @@
       <c r="E106" s="13"/>
       <c r="F106" s="7"/>
     </row>
-    <row r="107" ht="16.5" spans="2:6">
+    <row r="107" spans="2:6" ht="16.5">
       <c r="B107" s="12">
         <v>203</v>
       </c>
@@ -2336,7 +2329,7 @@
       <c r="E107" s="13"/>
       <c r="F107" s="13"/>
     </row>
-    <row r="108" ht="16.5" spans="2:6">
+    <row r="108" spans="2:6" ht="16.5">
       <c r="B108" s="12">
         <v>204</v>
       </c>
@@ -2345,7 +2338,7 @@
       <c r="E108" s="13"/>
       <c r="F108" s="13"/>
     </row>
-    <row r="109" ht="16.5" spans="2:6">
+    <row r="109" spans="2:6" ht="16.5">
       <c r="B109" s="12">
         <v>205</v>
       </c>
@@ -2354,7 +2347,7 @@
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
     </row>
-    <row r="110" ht="16.5" spans="2:6">
+    <row r="110" spans="2:6" ht="16.5">
       <c r="B110" s="12">
         <v>206</v>
       </c>
@@ -2363,7 +2356,7 @@
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
     </row>
-    <row r="111" ht="16.5" spans="2:6">
+    <row r="111" spans="2:6" ht="16.5">
       <c r="B111" s="12">
         <v>207</v>
       </c>
@@ -2372,7 +2365,7 @@
       <c r="E111" s="13"/>
       <c r="F111" s="13"/>
     </row>
-    <row r="112" ht="16.5" spans="2:6">
+    <row r="112" spans="2:6" ht="16.5">
       <c r="B112" s="12">
         <v>208</v>
       </c>
@@ -2381,7 +2374,7 @@
       <c r="E112" s="13"/>
       <c r="F112" s="7"/>
     </row>
-    <row r="113" ht="16.5" spans="2:6">
+    <row r="113" spans="2:6" ht="16.5">
       <c r="B113" s="12">
         <v>209</v>
       </c>
@@ -2390,7 +2383,7 @@
       <c r="E113" s="13"/>
       <c r="F113" s="13"/>
     </row>
-    <row r="114" ht="16.5" spans="2:6">
+    <row r="114" spans="2:6" ht="16.5">
       <c r="B114" s="12">
         <v>210</v>
       </c>
@@ -2399,7 +2392,7 @@
       <c r="E114" s="13"/>
       <c r="F114" s="13"/>
     </row>
-    <row r="115" ht="16.5" spans="2:6">
+    <row r="115" spans="2:6" ht="16.5">
       <c r="B115" s="12">
         <v>211</v>
       </c>
@@ -2408,7 +2401,7 @@
       <c r="E115" s="13"/>
       <c r="F115" s="7"/>
     </row>
-    <row r="116" ht="16.5" spans="2:6">
+    <row r="116" spans="2:6" ht="16.5">
       <c r="B116" s="12">
         <v>212</v>
       </c>
@@ -2417,7 +2410,7 @@
       <c r="E116" s="13"/>
       <c r="F116" s="13"/>
     </row>
-    <row r="117" ht="16.5" spans="2:6">
+    <row r="117" spans="2:6" ht="16.5">
       <c r="B117" s="12">
         <v>213</v>
       </c>
@@ -2426,7 +2419,7 @@
       <c r="E117" s="13"/>
       <c r="F117" s="13"/>
     </row>
-    <row r="118" ht="16.5" spans="2:6">
+    <row r="118" spans="2:6" ht="16.5">
       <c r="B118" s="12">
         <v>214</v>
       </c>
@@ -2435,7 +2428,7 @@
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
     </row>
-    <row r="119" ht="16.5" spans="2:6">
+    <row r="119" spans="2:6" ht="16.5">
       <c r="B119" s="12">
         <v>215</v>
       </c>
@@ -2444,7 +2437,7 @@
       <c r="E119" s="13"/>
       <c r="F119" s="13"/>
     </row>
-    <row r="120" ht="16.5" spans="2:6">
+    <row r="120" spans="2:6" ht="16.5">
       <c r="B120" s="12">
         <v>216</v>
       </c>
@@ -2453,7 +2446,7 @@
       <c r="E120" s="13"/>
       <c r="F120" s="7"/>
     </row>
-    <row r="121" ht="16.5" spans="2:6">
+    <row r="121" spans="2:6" ht="16.5">
       <c r="B121" s="12">
         <v>217</v>
       </c>
@@ -2462,7 +2455,7 @@
       <c r="E121" s="13"/>
       <c r="F121" s="7"/>
     </row>
-    <row r="122" ht="16.5" spans="2:6">
+    <row r="122" spans="2:6" ht="16.5">
       <c r="B122" s="12">
         <v>218</v>
       </c>
@@ -2471,7 +2464,7 @@
       <c r="E122" s="13"/>
       <c r="F122" s="7"/>
     </row>
-    <row r="123" ht="16.5" spans="2:6">
+    <row r="123" spans="2:6" ht="16.5">
       <c r="B123" s="12">
         <v>219</v>
       </c>
@@ -2480,7 +2473,7 @@
       <c r="E123" s="13"/>
       <c r="F123" s="7"/>
     </row>
-    <row r="124" ht="16.5" spans="2:6">
+    <row r="124" spans="2:6" ht="16.5">
       <c r="B124" s="12">
         <v>220</v>
       </c>
@@ -2489,7 +2482,7 @@
       <c r="E124" s="13"/>
       <c r="F124" s="7"/>
     </row>
-    <row r="125" ht="16.5" spans="2:6">
+    <row r="125" spans="2:6" ht="16.5">
       <c r="B125" s="12">
         <v>221</v>
       </c>
@@ -2498,7 +2491,7 @@
       <c r="E125" s="13"/>
       <c r="F125" s="7"/>
     </row>
-    <row r="126" ht="16.5" spans="2:6">
+    <row r="126" spans="2:6" ht="16.5">
       <c r="B126" s="12">
         <v>222</v>
       </c>
@@ -2507,7 +2500,7 @@
       <c r="E126" s="13"/>
       <c r="F126" s="7"/>
     </row>
-    <row r="127" ht="16.5" spans="2:6">
+    <row r="127" spans="2:6" ht="16.5">
       <c r="B127" s="12">
         <v>223</v>
       </c>
@@ -2516,7 +2509,7 @@
       <c r="E127" s="13"/>
       <c r="F127" s="7"/>
     </row>
-    <row r="128" ht="16.5" spans="2:6">
+    <row r="128" spans="2:6" ht="16.5">
       <c r="B128" s="12">
         <v>224</v>
       </c>
@@ -2525,7 +2518,7 @@
       <c r="E128" s="13"/>
       <c r="F128" s="7"/>
     </row>
-    <row r="129" ht="16.5" spans="2:6">
+    <row r="129" spans="2:6" ht="16.5">
       <c r="B129" s="12">
         <v>225</v>
       </c>
@@ -2534,7 +2527,7 @@
       <c r="E129" s="13"/>
       <c r="F129" s="7"/>
     </row>
-    <row r="130" ht="16.5" spans="2:6">
+    <row r="130" spans="2:6" ht="16.5">
       <c r="B130" s="12">
         <v>226</v>
       </c>
@@ -2543,7 +2536,7 @@
       <c r="E130" s="13"/>
       <c r="F130" s="7"/>
     </row>
-    <row r="131" ht="16.5" spans="2:6">
+    <row r="131" spans="2:6" ht="16.5">
       <c r="B131" s="12">
         <v>227</v>
       </c>
@@ -2552,7 +2545,7 @@
       <c r="E131" s="13"/>
       <c r="F131" s="7"/>
     </row>
-    <row r="132" ht="16.5" spans="2:6">
+    <row r="132" spans="2:6" ht="16.5">
       <c r="B132" s="12">
         <v>228</v>
       </c>
@@ -2561,7 +2554,7 @@
       <c r="E132" s="13"/>
       <c r="F132" s="7"/>
     </row>
-    <row r="133" ht="16.5" spans="2:6">
+    <row r="133" spans="2:6" ht="16.5">
       <c r="B133" s="12">
         <v>229</v>
       </c>
@@ -2570,7 +2563,7 @@
       <c r="E133" s="13"/>
       <c r="F133" s="7"/>
     </row>
-    <row r="134" ht="16.5" spans="2:6">
+    <row r="134" spans="2:6" ht="16.5">
       <c r="B134" s="12">
         <v>230</v>
       </c>
@@ -2579,7 +2572,7 @@
       <c r="E134" s="13"/>
       <c r="F134" s="7"/>
     </row>
-    <row r="135" ht="16.5" spans="2:6">
+    <row r="135" spans="2:6" ht="16.5">
       <c r="B135" s="12">
         <v>231</v>
       </c>
@@ -2588,7 +2581,7 @@
       <c r="E135" s="13"/>
       <c r="F135" s="7"/>
     </row>
-    <row r="136" ht="16.5" spans="2:6">
+    <row r="136" spans="2:6" ht="16.5">
       <c r="B136" s="12">
         <v>232</v>
       </c>
@@ -2597,7 +2590,7 @@
       <c r="E136" s="13"/>
       <c r="F136" s="7"/>
     </row>
-    <row r="137" ht="16.5" spans="2:6">
+    <row r="137" spans="2:6" ht="16.5">
       <c r="B137" s="12">
         <v>233</v>
       </c>
@@ -2606,7 +2599,7 @@
       <c r="E137" s="13"/>
       <c r="F137" s="7"/>
     </row>
-    <row r="138" ht="16.5" spans="2:6">
+    <row r="138" spans="2:6" ht="16.5">
       <c r="B138" s="12">
         <v>234</v>
       </c>
@@ -2615,7 +2608,7 @@
       <c r="E138" s="13"/>
       <c r="F138" s="7"/>
     </row>
-    <row r="139" ht="16.5" spans="2:6">
+    <row r="139" spans="2:6" ht="16.5">
       <c r="B139" s="12">
         <v>235</v>
       </c>
@@ -2624,7 +2617,7 @@
       <c r="E139" s="13"/>
       <c r="F139" s="7"/>
     </row>
-    <row r="140" ht="16.5" spans="2:6">
+    <row r="140" spans="2:6" ht="16.5">
       <c r="B140" s="12">
         <v>236</v>
       </c>
@@ -2633,7 +2626,7 @@
       <c r="E140" s="13"/>
       <c r="F140" s="7"/>
     </row>
-    <row r="141" ht="16.5" spans="2:6">
+    <row r="141" spans="2:6" ht="16.5">
       <c r="B141" s="12">
         <v>237</v>
       </c>
@@ -2642,7 +2635,7 @@
       <c r="E141" s="13"/>
       <c r="F141" s="7"/>
     </row>
-    <row r="142" ht="16.5" spans="2:6">
+    <row r="142" spans="2:6" ht="16.5">
       <c r="B142" s="12">
         <v>238</v>
       </c>
@@ -2651,7 +2644,7 @@
       <c r="E142" s="13"/>
       <c r="F142" s="7"/>
     </row>
-    <row r="143" ht="16.5" spans="2:6">
+    <row r="143" spans="2:6" ht="16.5">
       <c r="B143" s="12">
         <v>239</v>
       </c>
@@ -2660,7 +2653,7 @@
       <c r="E143" s="13"/>
       <c r="F143" s="7"/>
     </row>
-    <row r="144" ht="16.5" spans="2:6">
+    <row r="144" spans="2:6" ht="16.5">
       <c r="B144" s="12">
         <v>240</v>
       </c>
@@ -2670,22 +2663,21 @@
       <c r="F144" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="B4:F135"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B4:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53:F107"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
     <col min="3" max="3" width="31" style="3" customWidth="1"/>
@@ -2694,7 +2686,7 @@
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" ht="20.25" spans="2:6">
+    <row r="4" spans="2:6" ht="20.25">
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
@@ -2908,38 +2900,44 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="6"/>
-      <c r="C23" s="8"/>
+      <c r="B23" s="6">
+        <v>110019</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>172</v>
+      </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="B24" s="6">
+        <v>110020</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>173</v>
+      </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="6">
-        <v>169001</v>
+        <v>110021</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="6">
-        <v>169002</v>
+        <v>110022</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -2947,10 +2945,10 @@
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="6">
-        <v>169003</v>
+        <v>110023</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -2958,72 +2956,62 @@
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="6">
-        <v>169004</v>
-      </c>
-      <c r="C28" s="6"/>
+        <v>110024</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>177</v>
+      </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="6">
-        <v>169005</v>
-      </c>
+      <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="6">
-        <v>169006</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>112</v>
-      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="6">
-        <v>169007</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>113</v>
-      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="8"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="6">
-        <v>169008</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>114</v>
-      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="6">
-        <v>169009</v>
+        <v>169001</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="F33" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="6">
-        <v>169010</v>
+        <v>169002</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -3031,10 +3019,10 @@
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="6">
-        <v>169011</v>
+        <v>169003</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -3042,32 +3030,28 @@
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="6">
-        <v>169012</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>118</v>
-      </c>
+        <v>169004</v>
+      </c>
+      <c r="C36" s="6"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="6">
-        <v>169013</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>119</v>
-      </c>
+        <v>169005</v>
+      </c>
+      <c r="C37" s="6"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="6">
-        <v>169014</v>
+        <v>169006</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -3075,10 +3059,10 @@
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="6">
-        <v>169015</v>
+        <v>169007</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -3086,19 +3070,21 @@
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="6">
-        <v>169016</v>
-      </c>
-      <c r="C40" s="6"/>
+        <v>169008</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="6">
-        <v>169017</v>
+        <v>169009</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -3106,10 +3092,10 @@
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="6">
-        <v>169018</v>
+        <v>169010</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -3117,19 +3103,21 @@
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="6">
-        <v>169019</v>
-      </c>
-      <c r="C43" s="6"/>
+        <v>169011</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="6">
-        <v>169020</v>
+        <v>169012</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -3137,10 +3125,10 @@
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="6">
-        <v>169021</v>
+        <v>169013</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -3148,25 +3136,29 @@
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="6">
-        <v>169022</v>
-      </c>
-      <c r="C46" s="6"/>
+        <v>169014</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="6">
-        <v>169023</v>
-      </c>
-      <c r="C47" s="6"/>
+        <v>169015</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="6">
-        <v>169024</v>
+        <v>169016</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
@@ -3175,141 +3167,133 @@
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="6">
-        <v>169025</v>
-      </c>
-      <c r="C49" s="6"/>
+        <v>169017</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>122</v>
+      </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
+      <c r="B50" s="6">
+        <v>169018</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="6"/>
+      <c r="B51" s="6">
+        <v>169019</v>
+      </c>
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
+      <c r="B52" s="6">
+        <v>169020</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="6">
-        <v>156001</v>
+        <v>169021</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
-      <c r="F53" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="F53" s="7"/>
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="6">
-        <v>156002</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>127</v>
-      </c>
+        <v>169022</v>
+      </c>
+      <c r="C54" s="6"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="6">
-        <v>156003</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>128</v>
-      </c>
+        <v>169023</v>
+      </c>
+      <c r="C55" s="6"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="6">
-        <v>156004</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>129</v>
-      </c>
+        <v>169024</v>
+      </c>
+      <c r="C56" s="6"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="6">
-        <v>156005</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>130</v>
-      </c>
+        <v>169025</v>
+      </c>
+      <c r="C57" s="6"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="6">
-        <v>156006</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>131</v>
-      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="6">
-        <v>156007</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>132</v>
-      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="6">
-        <v>156008</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>115</v>
-      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="6">
-        <v>156009</v>
+        <v>156001</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
+      <c r="F61" s="7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="6">
-        <v>156010</v>
+        <v>156002</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
@@ -3317,10 +3301,10 @@
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="6">
-        <v>156011</v>
+        <v>156003</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -3328,10 +3312,10 @@
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="6">
-        <v>156012</v>
+        <v>156004</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -3339,10 +3323,10 @@
     </row>
     <row r="65" spans="2:6">
       <c r="B65" s="6">
-        <v>156013</v>
+        <v>156005</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -3350,10 +3334,10 @@
     </row>
     <row r="66" spans="2:6">
       <c r="B66" s="6">
-        <v>156014</v>
+        <v>156006</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -3361,10 +3345,10 @@
     </row>
     <row r="67" spans="2:6">
       <c r="B67" s="6">
-        <v>156015</v>
+        <v>156007</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -3372,10 +3356,10 @@
     </row>
     <row r="68" spans="2:6">
       <c r="B68" s="6">
-        <v>156016</v>
+        <v>156008</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -3383,10 +3367,10 @@
     </row>
     <row r="69" spans="2:6">
       <c r="B69" s="6">
-        <v>156017</v>
+        <v>156009</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -3394,10 +3378,10 @@
     </row>
     <row r="70" spans="2:6">
       <c r="B70" s="6">
-        <v>156018</v>
+        <v>156010</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -3405,10 +3389,10 @@
     </row>
     <row r="71" spans="2:6">
       <c r="B71" s="6">
-        <v>156019</v>
+        <v>156011</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -3416,10 +3400,10 @@
     </row>
     <row r="72" spans="2:6">
       <c r="B72" s="6">
-        <v>156020</v>
+        <v>156012</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
@@ -3427,10 +3411,10 @@
     </row>
     <row r="73" spans="2:6">
       <c r="B73" s="6">
-        <v>156021</v>
+        <v>156013</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
@@ -3438,10 +3422,10 @@
     </row>
     <row r="74" spans="2:6">
       <c r="B74" s="6">
-        <v>156022</v>
+        <v>156014</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
@@ -3449,10 +3433,10 @@
     </row>
     <row r="75" spans="2:6">
       <c r="B75" s="6">
-        <v>156023</v>
+        <v>156015</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -3460,10 +3444,10 @@
     </row>
     <row r="76" spans="2:6">
       <c r="B76" s="6">
-        <v>156024</v>
+        <v>156016</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
@@ -3471,10 +3455,10 @@
     </row>
     <row r="77" spans="2:6">
       <c r="B77" s="6">
-        <v>156025</v>
+        <v>156017</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
@@ -3482,10 +3466,10 @@
     </row>
     <row r="78" spans="2:6">
       <c r="B78" s="6">
-        <v>156026</v>
+        <v>156018</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
@@ -3493,10 +3477,10 @@
     </row>
     <row r="79" spans="2:6">
       <c r="B79" s="6">
-        <v>156027</v>
+        <v>156019</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
@@ -3504,10 +3488,10 @@
     </row>
     <row r="80" spans="2:6">
       <c r="B80" s="6">
-        <v>156028</v>
+        <v>156020</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
@@ -3515,10 +3499,10 @@
     </row>
     <row r="81" spans="2:6">
       <c r="B81" s="6">
-        <v>156029</v>
+        <v>156021</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -3526,10 +3510,10 @@
     </row>
     <row r="82" spans="2:6">
       <c r="B82" s="6">
-        <v>156030</v>
+        <v>156022</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
@@ -3537,10 +3521,10 @@
     </row>
     <row r="83" spans="2:6">
       <c r="B83" s="6">
-        <v>156031</v>
+        <v>156023</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -3548,10 +3532,10 @@
     </row>
     <row r="84" spans="2:6">
       <c r="B84" s="6">
-        <v>156032</v>
+        <v>156024</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
@@ -3559,10 +3543,10 @@
     </row>
     <row r="85" spans="2:6">
       <c r="B85" s="6">
-        <v>156033</v>
+        <v>156025</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
@@ -3570,55 +3554,65 @@
     </row>
     <row r="86" spans="2:6">
       <c r="B86" s="6">
-        <v>156034</v>
+        <v>156026</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
     </row>
     <row r="87" spans="2:6">
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
+      <c r="B87" s="6">
+        <v>156027</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
+      <c r="B88" s="6">
+        <v>156028</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
+      <c r="B89" s="6">
+        <v>156029</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
     </row>
     <row r="90" spans="2:6">
       <c r="B90" s="6">
-        <v>145001</v>
+        <v>156030</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
-      <c r="F90" s="7" t="s">
-        <v>49</v>
-      </c>
+      <c r="F90" s="7"/>
     </row>
     <row r="91" spans="2:6">
       <c r="B91" s="6">
-        <v>145002</v>
+        <v>156031</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
@@ -3626,10 +3620,10 @@
     </row>
     <row r="92" spans="2:6">
       <c r="B92" s="6">
-        <v>145003</v>
+        <v>156032</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -3637,10 +3631,10 @@
     </row>
     <row r="93" spans="2:6">
       <c r="B93" s="6">
-        <v>145004</v>
+        <v>156033</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
@@ -3648,65 +3642,55 @@
     </row>
     <row r="94" spans="2:6">
       <c r="B94" s="6">
-        <v>145005</v>
+        <v>156034</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
     </row>
     <row r="95" spans="2:6">
-      <c r="B95" s="6">
-        <v>145006</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>155</v>
-      </c>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
     </row>
     <row r="96" spans="2:6">
-      <c r="B96" s="6">
-        <v>145007</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>156</v>
-      </c>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
     </row>
     <row r="97" spans="2:6">
-      <c r="B97" s="6">
-        <v>145008</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>131</v>
-      </c>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
     </row>
     <row r="98" spans="2:6">
       <c r="B98" s="6">
-        <v>145009</v>
+        <v>145001</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
+      <c r="F98" s="7" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="99" spans="2:6">
       <c r="B99" s="6">
-        <v>145010</v>
+        <v>145002</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
@@ -3714,10 +3698,10 @@
     </row>
     <row r="100" spans="2:6">
       <c r="B100" s="6">
-        <v>145011</v>
+        <v>145003</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
@@ -3725,10 +3709,10 @@
     </row>
     <row r="101" spans="2:6">
       <c r="B101" s="6">
-        <v>145012</v>
+        <v>145004</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
@@ -3736,10 +3720,10 @@
     </row>
     <row r="102" spans="2:6">
       <c r="B102" s="6">
-        <v>145013</v>
+        <v>145005</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
@@ -3747,10 +3731,10 @@
     </row>
     <row r="103" spans="2:6">
       <c r="B103" s="6">
-        <v>145014</v>
+        <v>145006</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
@@ -3758,10 +3742,10 @@
     </row>
     <row r="104" spans="2:6">
       <c r="B104" s="6">
-        <v>145015</v>
+        <v>145007</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
@@ -3769,10 +3753,10 @@
     </row>
     <row r="105" spans="2:6">
       <c r="B105" s="6">
-        <v>145016</v>
+        <v>145008</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
@@ -3780,67 +3764,99 @@
     </row>
     <row r="106" spans="2:6">
       <c r="B106" s="6">
-        <v>145017</v>
+        <v>145009</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
     </row>
     <row r="107" spans="2:6">
-      <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
+      <c r="B107" s="6">
+        <v>145010</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
     </row>
     <row r="108" spans="2:6">
-      <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
+      <c r="B108" s="6">
+        <v>145011</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
     </row>
     <row r="109" spans="2:6">
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
+      <c r="B109" s="6">
+        <v>145012</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
     </row>
     <row r="110" spans="2:6">
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
+      <c r="B110" s="6">
+        <v>145013</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
     </row>
     <row r="111" spans="2:6">
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
+      <c r="B111" s="6">
+        <v>145014</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
     </row>
     <row r="112" spans="2:6">
-      <c r="B112" s="6"/>
-      <c r="C112" s="6"/>
+      <c r="B112" s="6">
+        <v>145015</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
+      <c r="B113" s="6">
+        <v>145016</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
     </row>
     <row r="114" spans="2:6">
-      <c r="B114" s="6"/>
-      <c r="C114" s="6"/>
+      <c r="B114" s="6">
+        <v>145017</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>157</v>
+      </c>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
@@ -3915,24 +3931,78 @@
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
     </row>
-    <row r="135" ht="13.5"/>
+    <row r="125" spans="2:6">
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+    </row>
+    <row r="126" spans="2:6">
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+    </row>
+    <row r="127" spans="2:6">
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+    </row>
+    <row r="128" spans="2:6">
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+    </row>
+    <row r="129" spans="2:6">
+      <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+    </row>
+    <row r="130" spans="2:6">
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+    </row>
+    <row r="131" spans="2:6">
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+    </row>
+    <row r="132" spans="2:6">
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="9"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="13" style="2" customWidth="1"/>
     <col min="3" max="3" width="13" style="3" customWidth="1"/>
@@ -3987,21 +4057,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
@@ -4014,7 +4083,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ServiceAreaClient/Docs/Device_SN_Description.xlsx
+++ b/ServiceAreaClient/Docs/Device_SN_Description.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="180">
   <si>
     <t xml:space="preserve">设备编号用 3x4=12位数字来统一表示:
 </t>
@@ -623,6 +623,14 @@
   </si>
   <si>
     <t>南区客流</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>总表1</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>总表2</t>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -2673,8 +2681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3032,7 +3040,9 @@
       <c r="B36" s="6">
         <v>169004</v>
       </c>
-      <c r="C36" s="6"/>
+      <c r="C36" s="6" t="s">
+        <v>178</v>
+      </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -3041,7 +3051,9 @@
       <c r="B37" s="6">
         <v>169005</v>
       </c>
-      <c r="C37" s="6"/>
+      <c r="C37" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
